--- a/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:07:50+00:00</t>
+    <t>2024-01-12T15:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T15:06:45+00:00</t>
+    <t>2024-01-15T15:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Include Associat" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Définition des t" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Code System afin" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -43,7 +43,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Value Set pou étendre le Value Set pour query parameter includeAssociatedData</t>
+    <t>Value Set afin d'étendre le Value Set pour query parameter includeAssociatedData</t>
   </si>
   <si>
     <t>Status</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:32:20+00:00</t>
+    <t>2024-01-15T15:38:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from Include Associat" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from Code System afin" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Code System (CS)" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:38:25+00:00</t>
+    <t>2024-01-15T15:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:51:45+00:00</t>
+    <t>2024-01-24T08:52:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/ig/main/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T08:52:08+00:00</t>
+    <t>2024-01-24T16:21:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
